--- a/food_app/data/customer_data.xlsx
+++ b/food_app/data/customer_data.xlsx
@@ -486,7 +486,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,6 +497,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -530,13 +536,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -945,7 +951,7 @@
         <v>84931409</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -962,7 +968,7 @@
         <v>92811774</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -979,7 +985,7 @@
         <v>86763907</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -996,7 +1002,7 @@
         <v>97848078</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1013,7 +1019,7 @@
         <v>85008354</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1030,7 +1036,7 @@
         <v>92568473</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1047,7 +1053,7 @@
         <v>84789534</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1064,7 +1070,7 @@
         <v>97958827</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1081,7 +1087,7 @@
         <v>85451951</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1098,7 +1104,7 @@
         <v>81961352</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1115,7 +1121,7 @@
         <v>92313472</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
